--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,176 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -834,37 +843,40 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,26 +893,27 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +985,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,8 +1058,8 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1052,13 +1074,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
         <v>3100</v>
       </c>
       <c r="F17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="G17" s="3">
         <v>2900</v>
       </c>
       <c r="H17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,35 +1210,36 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1214,60 +1247,66 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,70 +1331,76 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1368,23 +1413,23 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1392,14 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,35 +1772,38 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1742,60 +1811,66 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,63 +2052,67 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1700</v>
       </c>
       <c r="K41" s="3">
         <v>1700</v>
       </c>
       <c r="L41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>5000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2034,8 +2123,8 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2047,16 +2136,19 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2067,101 +2159,107 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>800</v>
       </c>
       <c r="N43" s="3">
         <v>800</v>
       </c>
       <c r="O43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -2170,7 +2268,7 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
@@ -2185,54 +2283,60 @@
         <v>400</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E46" s="3">
         <v>23900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>26700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>3200</v>
       </c>
       <c r="K46" s="3">
         <v>3200</v>
       </c>
       <c r="L46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2258,7 +2362,7 @@
         <v>800</v>
       </c>
       <c r="K47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="L47" s="3">
         <v>6000</v>
@@ -2270,39 +2374,42 @@
         <v>6000</v>
       </c>
       <c r="O47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P47" s="3">
         <v>7700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7100</v>
+        <v>8700</v>
       </c>
       <c r="E48" s="3">
         <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="G48" s="3">
         <v>5900</v>
       </c>
       <c r="H48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I48" s="3">
         <v>5700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
@@ -2314,13 +2421,16 @@
         <v>1000</v>
       </c>
       <c r="O48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2334,25 +2444,25 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -2361,10 +2471,13 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,37 +2585,40 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>700</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E54" s="3">
         <v>32900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,40 +2748,41 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
@@ -2661,10 +2791,13 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,10 +2811,10 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
@@ -2689,8 +2822,8 @@
       <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>1800</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2698,17 +2831,20 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,25 +2852,25 @@
         <v>700</v>
       </c>
       <c r="E59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="G59" s="3">
+        <v>500</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
@@ -2743,60 +2879,66 @@
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,37 +2952,40 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,11 +2998,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -2874,17 +3019,20 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-59400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-58100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-56300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-53800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-52400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-52000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-51300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E76" s="3">
         <v>31200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3667,13 +3865,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,20 +4173,21 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -3978,11 +4198,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3993,13 +4213,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,23 +4312,26 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4110,28 +4339,31 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4339,37 +4584,40 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>21900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4380,14 +4628,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -4404,48 +4652,51 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
@@ -4454,6 +4705,9 @@
         <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,46 +751,52 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,46 +804,52 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -855,13 +875,13 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -870,13 +890,19 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,31 +920,33 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>800</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+      <c r="I12" s="3">
+        <v>800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,43 +1022,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1061,11 +1107,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1077,13 +1123,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1223,90 +1291,102 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-500</v>
       </c>
       <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>200</v>
       </c>
       <c r="Q21" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,17 +1414,17 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1352,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-500</v>
       </c>
       <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1416,38 +1508,44 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-500</v>
       </c>
       <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-500</v>
       </c>
       <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1787,90 +1927,102 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-500</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-500</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>25600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>27000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2109,28 +2289,28 @@
         <v>5100</v>
       </c>
       <c r="E42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2139,142 +2319,160 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
@@ -2286,65 +2484,77 @@
         <v>400</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
+        <v>400</v>
+      </c>
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F46" s="3">
         <v>20500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>23900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>24600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>26700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>28200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>7700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
@@ -2365,10 +2575,10 @@
         <v>800</v>
       </c>
       <c r="L47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="M47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="N47" s="3">
         <v>6000</v>
@@ -2377,45 +2587,51 @@
         <v>6000</v>
       </c>
       <c r="P47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R47" s="3">
         <v>7700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
@@ -2424,21 +2640,27 @@
         <v>1000</v>
       </c>
       <c r="P48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2447,37 +2669,43 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>200</v>
-      </c>
-      <c r="O49" s="3">
-        <v>200</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
       </c>
       <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,16 +2804,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2588,37 +2828,43 @@
         <v>900</v>
       </c>
       <c r="H52" s="3">
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29000</v>
+      </c>
+      <c r="F54" s="3">
         <v>31100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>32900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>33500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>34500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>37200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>16600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,60 +3009,68 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2814,136 +3082,154 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1800</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2955,45 +3241,51 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>2600</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2400</v>
       </c>
       <c r="O61" s="3">
         <v>2600</v>
       </c>
       <c r="P61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R61" s="3">
         <v>2900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3001,38 +3293,44 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2800</v>
       </c>
       <c r="L66" s="3">
         <v>3900</v>
       </c>
       <c r="M66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-60600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-59400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-58100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-56300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-55200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-53200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-52700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-52400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-52000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-51300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>26500</v>
+      </c>
+      <c r="F76" s="3">
         <v>29800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>31200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>32400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-500</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4222,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3868,13 +4266,19 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,26 +4614,28 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4201,14 +4643,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -4216,13 +4658,19 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,16 +5055,22 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -4587,37 +5079,43 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>21900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4625,23 +5123,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4655,59 +5153,71 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>20600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,216 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -872,37 +882,40 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -934,23 +948,23 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1045,49 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1129,13 +1152,16 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3100</v>
       </c>
       <c r="H17" s="3">
         <v>3100</v>
       </c>
       <c r="I17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J17" s="3">
         <v>2900</v>
       </c>
       <c r="K17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,35 +1322,35 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1324,69 +1358,75 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,84 +1460,90 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1514,23 +1560,23 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1538,14 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,35 +1994,35 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1960,69 +2030,75 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,66 +2313,70 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1700</v>
       </c>
       <c r="N41" s="3">
         <v>1700</v>
       </c>
       <c r="O41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5100</v>
+        <v>3900</v>
       </c>
       <c r="E42" s="3">
         <v>5100</v>
@@ -2295,13 +2385,13 @@
         <v>5100</v>
       </c>
       <c r="G42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="I42" s="3">
+        <v>5000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2312,8 +2402,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2325,27 +2415,30 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>1900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2354,119 +2447,125 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>800</v>
       </c>
       <c r="Q43" s="3">
         <v>800</v>
       </c>
       <c r="R43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E44" s="3">
         <v>6500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -2475,7 +2574,7 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
@@ -2490,63 +2589,69 @@
         <v>400</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E46" s="3">
         <v>16000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>24600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>26700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>3200</v>
       </c>
       <c r="N46" s="3">
         <v>3200</v>
       </c>
       <c r="O46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P46" s="3">
         <v>2000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,10 +2659,10 @@
         <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -2581,7 +2686,7 @@
         <v>800</v>
       </c>
       <c r="N47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="O47" s="3">
         <v>6000</v>
@@ -2593,48 +2698,51 @@
         <v>6000</v>
       </c>
       <c r="R47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S47" s="3">
         <v>7700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>7100</v>
       </c>
       <c r="H48" s="3">
         <v>7100</v>
       </c>
       <c r="I48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="J48" s="3">
         <v>5900</v>
       </c>
       <c r="K48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="L48" s="3">
         <v>5700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1000</v>
@@ -2646,13 +2754,16 @@
         <v>1000</v>
       </c>
       <c r="R48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2663,7 +2774,7 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2675,25 +2786,25 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>100</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="3">
         <v>200</v>
@@ -2702,10 +2813,13 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,7 +2942,7 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2834,37 +2954,40 @@
         <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
       <c r="Q52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E54" s="3">
         <v>28300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,49 +3141,50 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
@@ -3062,18 +3193,21 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3088,10 +3222,10 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>1800</v>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>1800</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3108,52 +3242,55 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>700</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
       </c>
       <c r="O59" s="3">
         <v>600</v>
@@ -3162,78 +3299,84 @@
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3247,37 +3390,40 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
+        <v>200</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>500</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3299,11 +3445,11 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3320,17 +3466,20 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-65400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-60600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-59400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-58100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-56300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-52700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E76" s="3">
         <v>24900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,7 +4435,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4272,13 +4471,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,29 +4836,30 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -4649,11 +4870,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,32 +5002,35 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4808,28 +5038,31 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,20 +5304,23 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5085,37 +5331,40 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>21900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,11 +5372,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5135,14 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -5159,57 +5408,60 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-200</v>
       </c>
       <c r="Q102" s="3">
         <v>-200</v>
@@ -5218,6 +5470,9 @@
         <v>-200</v>
       </c>
       <c r="S102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,55 +758,58 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,55 +817,58 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,17 +876,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -885,37 +894,40 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,23 +964,23 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,38 +1078,38 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1161,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1155,13 +1177,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3100</v>
       </c>
       <c r="I17" s="3">
         <v>3100</v>
       </c>
       <c r="J17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K17" s="3">
         <v>2900</v>
       </c>
       <c r="L17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,35 +1358,35 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1361,72 +1394,78 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,90 +1502,96 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1563,23 +1608,23 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1587,14 +1632,17 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,35 +2066,35 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2033,72 +2102,78 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,72 +2399,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1700</v>
       </c>
       <c r="O41" s="3">
         <v>1700</v>
       </c>
       <c r="P41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3900</v>
-      </c>
-      <c r="E42" s="3">
-        <v>5100</v>
       </c>
       <c r="F42" s="3">
         <v>5100</v>
@@ -2388,13 +2477,13 @@
         <v>5100</v>
       </c>
       <c r="H42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+      <c r="J42" s="3">
+        <v>5000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2405,8 +2494,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2418,16 +2507,19 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>1900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,13 +2527,13 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2450,125 +2542,131 @@
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>800</v>
       </c>
       <c r="R43" s="3">
         <v>800</v>
       </c>
       <c r="S43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E44" s="3">
         <v>6700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -2577,7 +2675,7 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
@@ -2592,66 +2690,72 @@
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>400</v>
+      </c>
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
         <v>13700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>26700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>3200</v>
       </c>
       <c r="O46" s="3">
         <v>3200</v>
       </c>
       <c r="P46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>2000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,10 +2766,10 @@
         <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
@@ -2689,7 +2793,7 @@
         <v>800</v>
       </c>
       <c r="O47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="P47" s="3">
         <v>6000</v>
@@ -2701,51 +2805,54 @@
         <v>6000</v>
       </c>
       <c r="S47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T47" s="3">
         <v>7700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E48" s="3">
         <v>11400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>7100</v>
       </c>
       <c r="I48" s="3">
         <v>7100</v>
       </c>
       <c r="J48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="K48" s="3">
         <v>5900</v>
       </c>
       <c r="L48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M48" s="3">
         <v>5700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1000</v>
       </c>
       <c r="P48" s="3">
         <v>1000</v>
@@ -2757,18 +2864,21 @@
         <v>1000</v>
       </c>
       <c r="S48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -2777,7 +2887,7 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2789,25 +2899,25 @@
         <v>200</v>
       </c>
       <c r="K49" s="3">
+        <v>200</v>
+      </c>
+      <c r="L49" s="3">
         <v>1600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -2816,10 +2926,13 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2945,7 +3064,7 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
@@ -2957,37 +3076,40 @@
         <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>800</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>700</v>
       </c>
       <c r="Q52" s="3">
         <v>700</v>
       </c>
       <c r="R52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S52" s="3">
         <v>500</v>
       </c>
       <c r="T52" s="3">
+        <v>500</v>
+      </c>
+      <c r="U52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E54" s="3">
         <v>26300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,52 +3271,53 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3196,21 +3326,24 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
+        <v>400</v>
+      </c>
+      <c r="U57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3225,10 +3358,10 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>1800</v>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>1800</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -3245,55 +3378,58 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>700</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -3302,16 +3438,19 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,67 +3458,70 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3393,42 +3535,45 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
@@ -3437,7 +3582,7 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3448,11 +3593,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -3469,17 +3614,20 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3812,58 @@
         <v>2700</v>
       </c>
       <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-68900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-65400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-59400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-58100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-52700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-52400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-52000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E76" s="3">
         <v>23600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,7 +4636,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4474,13 +4672,16 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,32 +5056,33 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -4873,11 +5093,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4888,13 +5108,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,35 +5231,38 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5041,28 +5270,31 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,14 +5561,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5334,37 +5579,40 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>21900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,11 +5623,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5387,14 +5635,14 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5411,60 +5659,63 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
@@ -5473,6 +5724,9 @@
         <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,55 +769,61 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,55 +834,61 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -891,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -906,13 +926,13 @@
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -921,13 +941,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,16 +975,18 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -967,25 +995,25 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>800</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
+      <c r="M12" s="3">
+        <v>800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>200</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>8</v>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,55 +1101,61 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>800</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1126,31 +1166,37 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1164,11 +1210,11 @@
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1180,13 +1226,19 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-700</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,13 +1412,15 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1361,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1370,125 +1438,137 @@
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>300</v>
+      </c>
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
       </c>
       <c r="P21" s="3">
         <v>-500</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>200</v>
       </c>
       <c r="U21" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1505,17 +1585,17 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1523,81 +1603,93 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1611,38 +1703,44 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,13 +2188,19 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2069,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2078,102 +2218,114 @@
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
       <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
       <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,96 +2572,104 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>14100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>25600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>27000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5100</v>
       </c>
       <c r="H42" s="3">
         <v>5100</v>
       </c>
       <c r="I42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K42" s="3">
         <v>5000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2497,11 +2677,11 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2510,16 +2690,22 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>1900</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,158 +2716,170 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>900</v>
       </c>
       <c r="M45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N45" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
@@ -2693,89 +2891,101 @@
         <v>400</v>
       </c>
       <c r="U45" s="3">
+        <v>400</v>
+      </c>
+      <c r="V45" s="3">
+        <v>400</v>
+      </c>
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F46" s="3">
         <v>11400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>17800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>20500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>24600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>26700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>28200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>800</v>
@@ -2796,10 +3006,10 @@
         <v>800</v>
       </c>
       <c r="P47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="Q47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="R47" s="3">
         <v>6000</v>
@@ -2808,57 +3018,63 @@
         <v>6000</v>
       </c>
       <c r="T47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V47" s="3">
         <v>7700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F48" s="3">
         <v>11500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1000</v>
       </c>
       <c r="R48" s="3">
         <v>1000</v>
@@ -2867,13 +3083,19 @@
         <v>1000</v>
       </c>
       <c r="T48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2881,19 +3103,19 @@
         <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
@@ -2902,37 +3124,43 @@
         <v>200</v>
       </c>
       <c r="L49" s="3">
+        <v>200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>200</v>
+      </c>
+      <c r="N49" s="3">
         <v>1600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>200</v>
-      </c>
-      <c r="S49" s="3">
-        <v>200</v>
       </c>
       <c r="T49" s="3">
         <v>200</v>
       </c>
       <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3067,10 +3307,10 @@
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
@@ -3079,37 +3319,43 @@
         <v>900</v>
       </c>
       <c r="L52" s="3">
+        <v>900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>900</v>
+      </c>
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>35900</v>
+      </c>
+      <c r="F54" s="3">
         <v>24200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>26300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>28300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>29000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>32900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>33500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>34500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>37200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,84 +3532,92 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
+        <v>400</v>
+      </c>
+      <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3361,173 +3629,191 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1800</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
       </c>
       <c r="R59" s="3">
         <v>600</v>
       </c>
       <c r="S59" s="3">
+        <v>600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2300</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
       </c>
       <c r="H60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3538,37 +3824,43 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2400</v>
       </c>
       <c r="S61" s="3">
         <v>2600</v>
       </c>
       <c r="T61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V61" s="3">
         <v>2900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,19 +3868,19 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -3596,38 +3888,44 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +4113,14 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,58 +4128,64 @@
         <v>2700</v>
       </c>
       <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2800</v>
       </c>
       <c r="P66" s="3">
         <v>3900</v>
       </c>
       <c r="Q66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-71200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-68900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-67200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-65400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-62200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-60600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-59400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-58100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-56300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-53800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-53200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-52700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-52400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-52000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-51300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32800</v>
+      </c>
+      <c r="F76" s="3">
         <v>21500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>23600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>24900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>26500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>32400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>33600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>36600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
       <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +5017,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4639,10 +5037,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4675,13 +5073,19 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E89" s="3">
         <v>-2500</v>
       </c>
       <c r="F89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,38 +5497,40 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5096,14 +5538,14 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5111,13 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,29 +6038,35 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>14200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5582,37 +6074,43 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>21900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5626,29 +6124,29 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5662,71 +6160,83 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>20600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>1100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,60 +779,63 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
-      </c>
-      <c r="T8" s="3">
-        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -840,60 +847,63 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -905,17 +915,17 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -923,37 +933,40 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,19 +990,20 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1001,22 +1015,22 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>8</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1127,26 +1147,26 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1154,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1221,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
@@ -1216,8 +1239,8 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1232,13 +1255,16 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3100</v>
       </c>
       <c r="L17" s="3">
         <v>3100</v>
       </c>
       <c r="M17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="N17" s="3">
         <v>2900</v>
       </c>
       <c r="O17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,17 +1447,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1435,35 +1469,35 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1471,81 +1505,87 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-300</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,8 +1610,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1591,109 +1631,115 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1709,38 +1755,41 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,17 +2261,20 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2215,35 +2285,35 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2251,81 +2321,87 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
         <v>13300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>27000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1700</v>
       </c>
       <c r="R41" s="3">
         <v>1700</v>
       </c>
       <c r="S41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2648,16 +2738,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3900</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5100</v>
       </c>
       <c r="I42" s="3">
         <v>5100</v>
@@ -2666,13 +2756,13 @@
         <v>5100</v>
       </c>
       <c r="K42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="L42" s="3">
         <v>5000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>5000</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2683,8 +2773,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2696,39 +2786,42 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>1900</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
@@ -2737,87 +2830,90 @@
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>800</v>
       </c>
       <c r="U43" s="3">
         <v>800</v>
       </c>
       <c r="V43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="W43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7200</v>
+        <v>5500</v>
       </c>
       <c r="E44" s="3">
-        <v>7200</v>
+        <v>5500</v>
       </c>
       <c r="F44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G44" s="3">
         <v>5200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
@@ -2825,55 +2921,58 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
       </c>
       <c r="F45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
@@ -2882,7 +2981,7 @@
         <v>500</v>
       </c>
       <c r="R45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
@@ -2897,75 +2996,81 @@
         <v>400</v>
       </c>
       <c r="W45" s="3">
+        <v>400</v>
+      </c>
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E46" s="3">
         <v>22200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>3200</v>
       </c>
       <c r="R46" s="3">
         <v>3200</v>
       </c>
       <c r="S46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T46" s="3">
         <v>2000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2976,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -2985,10 +3090,10 @@
         <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -3012,7 +3117,7 @@
         <v>800</v>
       </c>
       <c r="R47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="S47" s="3">
         <v>6000</v>
@@ -3024,60 +3129,63 @@
         <v>6000</v>
       </c>
       <c r="V47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W47" s="3">
         <v>7700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E48" s="3">
         <v>11200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>7100</v>
       </c>
       <c r="L48" s="3">
         <v>7100</v>
       </c>
       <c r="M48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="N48" s="3">
         <v>5900</v>
       </c>
       <c r="O48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P48" s="3">
         <v>5700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1000</v>
       </c>
       <c r="S48" s="3">
         <v>1000</v>
@@ -3089,13 +3197,16 @@
         <v>1000</v>
       </c>
       <c r="V48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W48" s="3">
         <v>900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3109,7 +3220,7 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -3118,7 +3229,7 @@
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
@@ -3130,25 +3241,25 @@
         <v>200</v>
       </c>
       <c r="N49" s="3">
+        <v>200</v>
+      </c>
+      <c r="O49" s="3">
         <v>1600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1500</v>
-      </c>
-      <c r="P49" s="3">
-        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
       </c>
       <c r="R49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S49" s="3">
         <v>300</v>
       </c>
       <c r="T49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>200</v>
@@ -3157,10 +3268,13 @@
         <v>200</v>
       </c>
       <c r="W49" s="3">
+        <v>200</v>
+      </c>
+      <c r="X49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3433,7 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>900</v>
@@ -3325,37 +3445,40 @@
         <v>900</v>
       </c>
       <c r="N52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O52" s="3">
         <v>800</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>700</v>
       </c>
       <c r="T52" s="3">
         <v>700</v>
       </c>
       <c r="U52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="V52" s="3">
         <v>500</v>
       </c>
       <c r="W52" s="3">
+        <v>500</v>
+      </c>
+      <c r="X52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E54" s="3">
         <v>34400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>29000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,61 +3664,62 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -3597,10 +3728,13 @@
         <v>400</v>
       </c>
       <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3635,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1800</v>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>1800</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -3655,64 +3789,67 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
@@ -3721,81 +3858,87 @@
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
       </c>
       <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,20 +3946,20 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3830,37 +3973,40 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
       </c>
       <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3874,7 +4020,7 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
@@ -3883,7 +4029,7 @@
         <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3894,20 +4040,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -3915,17 +4061,20 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>2700</v>
       </c>
       <c r="H66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-74100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-71200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-67200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-65400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-58100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-52700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-52400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-52000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-51300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E76" s="3">
         <v>31700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>26500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>33600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,7 +5230,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5043,7 +5242,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5079,13 +5278,16 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,41 +5719,42 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5544,11 +5765,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,44 +5921,47 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5739,28 +5969,31 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,32 +6287,35 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6080,37 +6326,40 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>21900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6130,11 +6379,11 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6142,14 +6391,14 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -6166,69 +6415,72 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-200</v>
       </c>
       <c r="U102" s="3">
         <v>-200</v>
@@ -6237,6 +6489,9 @@
         <v>-200</v>
       </c>
       <c r="W102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,63 +785,66 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -850,64 +856,67 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -918,17 +927,17 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -936,37 +945,40 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,22 +1003,23 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>200</v>
@@ -1018,22 +1031,22 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>200</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>8</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1150,26 +1169,26 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1224,8 +1246,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1264,8 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1258,13 +1280,16 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3100</v>
       </c>
       <c r="M17" s="3">
         <v>3100</v>
       </c>
       <c r="N17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="O17" s="3">
         <v>2900</v>
       </c>
       <c r="P17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,11 +1490,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1472,35 +1505,35 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1508,84 +1541,90 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
       </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
       <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1613,8 +1652,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1634,115 +1673,121 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1758,38 +1803,41 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,11 +2342,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2288,35 +2357,35 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2324,84 +2393,90 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>27000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1700</v>
       </c>
       <c r="S41" s="3">
         <v>1700</v>
       </c>
       <c r="T41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2741,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3900</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5100</v>
       </c>
       <c r="J42" s="3">
         <v>5100</v>
@@ -2759,13 +2848,13 @@
         <v>5100</v>
       </c>
       <c r="L42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="M42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
+      <c r="N42" s="3">
+        <v>5000</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2776,8 +2865,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2789,42 +2878,45 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>1900</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1900</v>
       </c>
       <c r="F43" s="3">
         <v>1900</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
@@ -2833,45 +2925,48 @@
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
-      </c>
-      <c r="U43" s="3">
-        <v>800</v>
       </c>
       <c r="V43" s="3">
         <v>800</v>
       </c>
       <c r="W43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="X43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E44" s="3">
         <v>5500</v>
@@ -2880,43 +2975,43 @@
         <v>5500</v>
       </c>
       <c r="G44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H44" s="3">
         <v>5200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>8</v>
@@ -2924,17 +3019,20 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
       <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,40 +3040,40 @@
         <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="F45" s="3">
         <v>1500</v>
       </c>
       <c r="G45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
@@ -2984,7 +3082,7 @@
         <v>500</v>
       </c>
       <c r="S45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
@@ -2999,78 +3097,84 @@
         <v>400</v>
       </c>
       <c r="X45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E46" s="3">
         <v>21700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>22200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>23500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>17800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>3200</v>
       </c>
       <c r="S46" s="3">
         <v>3200</v>
       </c>
       <c r="T46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U46" s="3">
         <v>2000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3084,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -3093,10 +3197,10 @@
         <v>300</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>800</v>
@@ -3120,7 +3224,7 @@
         <v>800</v>
       </c>
       <c r="S47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="T47" s="3">
         <v>6000</v>
@@ -3132,63 +3236,66 @@
         <v>6000</v>
       </c>
       <c r="W47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X47" s="3">
         <v>7700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>7100</v>
       </c>
       <c r="M48" s="3">
         <v>7100</v>
       </c>
       <c r="N48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="O48" s="3">
         <v>5900</v>
       </c>
       <c r="P48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1000</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
@@ -3200,13 +3307,16 @@
         <v>1000</v>
       </c>
       <c r="W48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X48" s="3">
         <v>900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3223,7 +3333,7 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -3232,7 +3342,7 @@
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>200</v>
@@ -3244,25 +3354,25 @@
         <v>200</v>
       </c>
       <c r="O49" s="3">
+        <v>200</v>
+      </c>
+      <c r="P49" s="3">
         <v>1600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>100</v>
       </c>
       <c r="R49" s="3">
         <v>100</v>
       </c>
       <c r="S49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
       </c>
       <c r="U49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V49" s="3">
         <v>200</v>
@@ -3271,10 +3381,13 @@
         <v>200</v>
       </c>
       <c r="X49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3436,7 +3555,7 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>900</v>
@@ -3448,37 +3567,40 @@
         <v>900</v>
       </c>
       <c r="O52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="P52" s="3">
         <v>800</v>
       </c>
       <c r="Q52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R52" s="3">
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>700</v>
       </c>
       <c r="U52" s="3">
         <v>700</v>
       </c>
       <c r="V52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="W52" s="3">
         <v>500</v>
       </c>
       <c r="X52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E54" s="3">
         <v>33800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>29000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,55 +3804,55 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -3731,10 +3861,13 @@
         <v>400</v>
       </c>
       <c r="X57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3745,19 +3878,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3772,10 +3905,10 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>1800</v>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>1800</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3792,67 +3925,70 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>700</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>600</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
@@ -3861,84 +3997,90 @@
         <v>600</v>
       </c>
       <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
       </c>
       <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,20 +4091,20 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3976,37 +4118,40 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
       </c>
       <c r="R61" s="3">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4023,7 +4168,7 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
@@ -4032,7 +4177,7 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4043,20 +4188,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -4064,17 +4209,20 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2700</v>
       </c>
       <c r="H66" s="3">
         <v>2700</v>
       </c>
       <c r="I66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-80300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-74100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-71200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-68900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-67200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-65400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-62200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-60600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-58100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-56300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-53200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-52700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-52400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-52000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-51300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E76" s="3">
         <v>31300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>26500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>33600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,7 +5431,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5245,7 +5443,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5281,13 +5479,16 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,35 +5949,35 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -5768,11 +5988,11 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5783,13 +6003,16 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,38 +6162,38 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5972,28 +6201,31 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,35 +6532,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6329,37 +6574,40 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>21900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6382,11 +6630,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6394,14 +6642,14 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6418,72 +6666,75 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>20600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-200</v>
       </c>
       <c r="V102" s="3">
         <v>-200</v>
@@ -6492,6 +6743,9 @@
         <v>-200</v>
       </c>
       <c r="X102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -788,55 +796,61 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,13 +858,13 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -859,70 +873,76 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -930,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -942,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -957,13 +977,13 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -972,13 +992,19 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,16 +1030,18 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -1022,10 +1050,10 @@
         <v>300</v>
       </c>
       <c r="H12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -1034,25 +1062,25 @@
         <v>200</v>
       </c>
       <c r="L12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>800</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>8</v>
+      <c r="Q12" s="3">
+        <v>800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>8</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1161,52 +1201,52 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1249,11 +1295,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1267,11 +1313,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1283,13 +1329,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-700</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,14 +1561,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1508,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1517,114 +1585,126 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-4200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-500</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="X21" s="3">
-        <v>200</v>
       </c>
       <c r="Y21" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1655,11 +1735,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1676,17 +1756,17 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1776,68 +1868,74 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,14 +2485,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2360,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2369,114 +2509,126 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,84 +2919,92 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F41" s="3">
         <v>11900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>25600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>27000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -2833,34 +3013,34 @@
         <v>0</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3900</v>
-      </c>
-      <c r="J42" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K42" s="3">
-        <v>5100</v>
       </c>
       <c r="L42" s="3">
         <v>5100</v>
       </c>
       <c r="M42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="O42" s="3">
         <v>5000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>5000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -2868,11 +3048,11 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2881,214 +3061,232 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1900</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F44" s="3">
         <v>5400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5500</v>
       </c>
       <c r="G44" s="3">
         <v>5500</v>
       </c>
       <c r="H44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J44" s="3">
         <v>5200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>900</v>
       </c>
       <c r="Q45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="R45" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V45" s="3">
         <v>400</v>
@@ -3100,86 +3298,98 @@
         <v>400</v>
       </c>
       <c r="Y45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F46" s="3">
         <v>19200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>21700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>22200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>23500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>17800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>20500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>23900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>24600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>26700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>28200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3191,22 +3401,22 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L47" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>800</v>
@@ -3227,10 +3437,10 @@
         <v>800</v>
       </c>
       <c r="T47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="U47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="V47" s="3">
         <v>6000</v>
@@ -3239,69 +3449,75 @@
         <v>6000</v>
       </c>
       <c r="X47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>7700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F48" s="3">
         <v>11000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U48" s="3">
-        <v>1000</v>
       </c>
       <c r="V48" s="3">
         <v>1000</v>
@@ -3310,21 +3526,27 @@
         <v>1000</v>
       </c>
       <c r="X48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z48" s="3">
         <v>900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -3336,19 +3558,19 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
       </c>
       <c r="L49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>200</v>
@@ -3357,37 +3579,43 @@
         <v>200</v>
       </c>
       <c r="P49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>200</v>
+      </c>
+      <c r="R49" s="3">
         <v>1600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>200</v>
-      </c>
-      <c r="W49" s="3">
-        <v>200</v>
       </c>
       <c r="X49" s="3">
         <v>200</v>
       </c>
       <c r="Y49" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,16 +3762,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
@@ -3558,10 +3798,10 @@
         <v>600</v>
       </c>
       <c r="L52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="M52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>900</v>
@@ -3570,37 +3810,43 @@
         <v>900</v>
       </c>
       <c r="P52" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>900</v>
+      </c>
+      <c r="R52" s="3">
         <v>800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F54" s="3">
         <v>31300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>33800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>34400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>35900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>24200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>26300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>29000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>31100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>33500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>37200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>16600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>11300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>11200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>900</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>900</v>
+      </c>
+      <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3881,22 +4149,22 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3908,179 +4176,197 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1800</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1600</v>
       </c>
       <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
       </c>
       <c r="V59" s="3">
         <v>600</v>
       </c>
       <c r="W59" s="3">
+        <v>600</v>
+      </c>
+      <c r="X59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4094,23 +4380,23 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4121,42 +4407,48 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2500</v>
-      </c>
-      <c r="U61" s="3">
-        <v>2600</v>
-      </c>
-      <c r="V61" s="3">
-        <v>2400</v>
       </c>
       <c r="W61" s="3">
         <v>2600</v>
       </c>
       <c r="X61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -4171,19 +4463,19 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4191,38 +4483,44 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3100</v>
       </c>
       <c r="H66" s="3">
         <v>2700</v>
       </c>
       <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L66" s="3">
         <v>3400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2800</v>
       </c>
       <c r="T66" s="3">
         <v>3900</v>
       </c>
       <c r="U66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-82700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-80300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-75900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-74100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-71200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-68900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-67200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-65400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-62200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-60600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-58100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-56300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-55200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-54300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-53800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-53200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-52700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-52400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-52000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-51300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F76" s="3">
         <v>29500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>31300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>32800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>21500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>23600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>29800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>31200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>32400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>33600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>36600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>7500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>7400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5434,10 +5832,10 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -5446,10 +5844,10 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5482,13 +5880,19 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1800</v>
       </c>
       <c r="I89" s="3">
         <v>-2500</v>
       </c>
       <c r="J89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,50 +6380,52 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5991,14 +6433,14 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6006,13 +6448,19 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,32 +7036,32 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>14200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6577,42 +7069,48 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>21900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6633,29 +7131,29 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6669,83 +7167,95 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>13600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>20600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>1100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-200</v>
       </c>
       <c r="X102" s="3">
         <v>-200</v>
       </c>
       <c r="Y102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +785,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -802,55 +806,58 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
-      </c>
-      <c r="X8" s="3">
-        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,10 +871,10 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -879,55 +886,58 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,17 +945,17 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -956,17 +966,17 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -974,37 +984,40 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
       <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,31 +1045,32 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -1068,22 +1082,22 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1207,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1218,26 +1238,26 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,11 +1265,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,8 +1324,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1319,8 +1342,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1335,13 +1358,16 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3100</v>
       </c>
       <c r="P17" s="3">
         <v>3100</v>
       </c>
       <c r="Q17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="R17" s="3">
         <v>2900</v>
       </c>
       <c r="S17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1567,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1582,35 +1616,35 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1618,93 +1652,99 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-300</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +1781,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1762,103 +1802,109 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1883,12 +1929,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1904,38 +1950,41 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2491,11 +2561,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2506,35 +2576,35 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2542,93 +2612,99 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,94 +3007,98 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>27000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1700</v>
       </c>
       <c r="V41" s="3">
         <v>1700</v>
       </c>
       <c r="W41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X41" s="3">
         <v>600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
@@ -3019,16 +3109,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3900</v>
-      </c>
-      <c r="L42" s="3">
-        <v>5100</v>
       </c>
       <c r="M42" s="3">
         <v>5100</v>
@@ -3037,13 +3127,13 @@
         <v>5100</v>
       </c>
       <c r="O42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="P42" s="3">
         <v>5000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>5000</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -3054,8 +3144,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3067,51 +3157,54 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1900</v>
-      </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
       </c>
       <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1900</v>
       </c>
       <c r="I43" s="3">
         <v>1900</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
@@ -3120,54 +3213,57 @@
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
         <v>2000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
-      </c>
-      <c r="X43" s="3">
-        <v>800</v>
       </c>
       <c r="Y43" s="3">
         <v>800</v>
       </c>
       <c r="Z43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AA43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5500</v>
       </c>
       <c r="H44" s="3">
         <v>5500</v>
@@ -3176,43 +3272,43 @@
         <v>5500</v>
       </c>
       <c r="J44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K44" s="3">
         <v>5200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
       <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
@@ -3220,67 +3316,70 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
       <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1200</v>
       </c>
       <c r="G45" s="3">
         <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="3">
         <v>1500</v>
       </c>
       <c r="J45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>500</v>
@@ -3289,7 +3388,7 @@
         <v>500</v>
       </c>
       <c r="V45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W45" s="3">
         <v>400</v>
@@ -3304,95 +3403,101 @@
         <v>400</v>
       </c>
       <c r="AA45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E46" s="3">
         <v>12700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>22200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>3200</v>
       </c>
       <c r="V46" s="3">
         <v>3200</v>
       </c>
       <c r="W46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X46" s="3">
         <v>2000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3407,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -3416,10 +3521,10 @@
         <v>300</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>800</v>
@@ -3443,7 +3548,7 @@
         <v>800</v>
       </c>
       <c r="V47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="W47" s="3">
         <v>6000</v>
@@ -3455,72 +3560,75 @@
         <v>6000</v>
       </c>
       <c r="Z47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>7700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>7100</v>
       </c>
       <c r="P48" s="3">
         <v>7100</v>
       </c>
       <c r="Q48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="R48" s="3">
         <v>5900</v>
       </c>
       <c r="S48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T48" s="3">
         <v>5700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6200</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1000</v>
       </c>
       <c r="W48" s="3">
         <v>1000</v>
@@ -3532,24 +3640,27 @@
         <v>1000</v>
       </c>
       <c r="Z48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA48" s="3">
         <v>900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
         <v>900</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3564,7 +3675,7 @@
         <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -3573,7 +3684,7 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>200</v>
@@ -3585,25 +3696,25 @@
         <v>200</v>
       </c>
       <c r="R49" s="3">
+        <v>200</v>
+      </c>
+      <c r="S49" s="3">
         <v>1600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1500</v>
-      </c>
-      <c r="T49" s="3">
-        <v>100</v>
       </c>
       <c r="U49" s="3">
         <v>100</v>
       </c>
       <c r="V49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
       <c r="X49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>200</v>
@@ -3612,10 +3723,13 @@
         <v>200</v>
       </c>
       <c r="AA49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,19 +3885,22 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
@@ -3804,7 +3924,7 @@
         <v>600</v>
       </c>
       <c r="N52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>900</v>
@@ -3816,37 +3936,40 @@
         <v>900</v>
       </c>
       <c r="R52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S52" s="3">
         <v>800</v>
       </c>
       <c r="T52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="U52" s="3">
         <v>500</v>
       </c>
       <c r="V52" s="3">
+        <v>500</v>
+      </c>
+      <c r="W52" s="3">
         <v>800</v>
-      </c>
-      <c r="W52" s="3">
-        <v>700</v>
       </c>
       <c r="X52" s="3">
         <v>700</v>
       </c>
       <c r="Y52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Z52" s="3">
         <v>500</v>
       </c>
       <c r="AA52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,64 +4197,64 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
@@ -4132,15 +4263,18 @@
         <v>400</v>
       </c>
       <c r="AA57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4155,19 +4289,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -4182,10 +4316,10 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>1800</v>
@@ -4193,8 +4327,8 @@
       <c r="U58" s="3">
         <v>1800</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>1800</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
@@ -4202,76 +4336,79 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>700</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
       <c r="P59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="R59" s="3">
+        <v>500</v>
+      </c>
+      <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
@@ -4280,93 +4417,99 @@
         <v>600</v>
       </c>
       <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4386,20 +4529,20 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>300</v>
       </c>
       <c r="K61" s="3">
+        <v>300</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4413,37 +4556,40 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
       </c>
       <c r="U61" s="3">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -4469,7 +4615,7 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
         <v>500</v>
@@ -4478,7 +4624,7 @@
         <v>500</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4489,20 +4635,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -4510,17 +4656,20 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
       </c>
       <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2700</v>
       </c>
       <c r="K66" s="3">
         <v>2700</v>
       </c>
       <c r="L66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-82700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-80300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-75900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-74100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-65400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-62200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-56300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-54300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-53800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-53200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-52700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-52400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-52000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-51300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E76" s="3">
         <v>22000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5838,7 +6037,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5850,7 +6049,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5886,13 +6085,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,53 +6602,54 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-100</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6439,11 +6660,11 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6454,13 +6675,16 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,56 +6840,59 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6670,28 +6900,31 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,13 +7270,16 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7042,29 +7288,29 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7075,46 +7321,49 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>21900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -7137,11 +7386,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -7149,14 +7398,14 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7173,81 +7422,84 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>20600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-600</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-200</v>
       </c>
       <c r="Y102" s="3">
         <v>-200</v>
@@ -7256,6 +7508,9 @@
         <v>-200</v>
       </c>
       <c r="AA102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,133 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -809,60 +812,63 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
@@ -874,10 +880,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -889,55 +895,58 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -948,17 +957,17 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -969,17 +978,17 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -987,37 +996,40 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
       <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
       <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AB10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,25 +1068,25 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
@@ -1085,22 +1098,22 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>200</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>8</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,11 +1237,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1230,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1241,26 +1260,26 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1268,11 +1287,11 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1327,8 +1349,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1345,8 +1367,8 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1361,13 +1383,16 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3100</v>
       </c>
       <c r="Q17" s="3">
         <v>3100</v>
       </c>
       <c r="R17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="S17" s="3">
         <v>2900</v>
       </c>
       <c r="T17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,13 +1615,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1604,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1619,35 +1652,35 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1655,96 +1688,102 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-300</v>
       </c>
       <c r="Y21" s="3">
         <v>-300</v>
       </c>
       <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1784,8 +1823,8 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1805,106 +1844,112 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1932,12 +1977,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1953,38 +1998,41 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,13 +2609,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2564,11 +2633,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2579,35 +2648,35 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2615,96 +2684,102 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,100 +3093,104 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>27000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>1700</v>
       </c>
       <c r="W41" s="3">
         <v>1700</v>
       </c>
       <c r="X41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
@@ -3112,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3900</v>
-      </c>
-      <c r="M42" s="3">
-        <v>5100</v>
       </c>
       <c r="N42" s="3">
         <v>5100</v>
@@ -3130,13 +3219,13 @@
         <v>5100</v>
       </c>
       <c r="P42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="Q42" s="3">
         <v>5000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
+      <c r="R42" s="3">
+        <v>5000</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -3147,8 +3236,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3160,16 +3249,19 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>1900</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,37 +3269,37 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1900</v>
       </c>
       <c r="J43" s="3">
         <v>1900</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -3216,57 +3308,60 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>2000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>800</v>
       </c>
       <c r="Z43" s="3">
         <v>800</v>
       </c>
       <c r="AA43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AB43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>5500</v>
       </c>
       <c r="I44" s="3">
         <v>5500</v>
@@ -3275,43 +3370,43 @@
         <v>5500</v>
       </c>
       <c r="K44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L44" s="3">
         <v>5200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
       <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>500</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
@@ -3319,17 +3414,20 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
       <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3337,52 +3435,52 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1200</v>
       </c>
       <c r="H45" s="3">
         <v>1200</v>
       </c>
       <c r="I45" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3">
         <v>1500</v>
       </c>
       <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
@@ -3391,7 +3489,7 @@
         <v>500</v>
       </c>
       <c r="W45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>400</v>
@@ -3406,90 +3504,96 @@
         <v>400</v>
       </c>
       <c r="AB45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>22200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>20500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>24600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>3200</v>
       </c>
       <c r="W46" s="3">
         <v>3200</v>
       </c>
       <c r="X46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>2000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3499,8 +3603,8 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3515,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -3524,10 +3628,10 @@
         <v>300</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>800</v>
@@ -3551,7 +3655,7 @@
         <v>800</v>
       </c>
       <c r="W47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="X47" s="3">
         <v>6000</v>
@@ -3563,75 +3667,78 @@
         <v>6000</v>
       </c>
       <c r="AA47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AB47" s="3">
         <v>7700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>7100</v>
       </c>
       <c r="Q48" s="3">
         <v>7100</v>
       </c>
       <c r="R48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="S48" s="3">
         <v>5900</v>
       </c>
       <c r="T48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U48" s="3">
         <v>5700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1000</v>
       </c>
       <c r="X48" s="3">
         <v>1000</v>
@@ -3643,13 +3750,16 @@
         <v>1000</v>
       </c>
       <c r="AA48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB48" s="3">
         <v>900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,13 +3767,13 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>900</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -3678,7 +3788,7 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -3687,7 +3797,7 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>200</v>
@@ -3699,25 +3809,25 @@
         <v>200</v>
       </c>
       <c r="S49" s="3">
+        <v>200</v>
+      </c>
+      <c r="T49" s="3">
         <v>1600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1500</v>
-      </c>
-      <c r="U49" s="3">
-        <v>100</v>
       </c>
       <c r="V49" s="3">
         <v>100</v>
       </c>
       <c r="W49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X49" s="3">
         <v>300</v>
       </c>
       <c r="Y49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z49" s="3">
         <v>200</v>
@@ -3726,10 +3836,13 @@
         <v>200</v>
       </c>
       <c r="AB49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3897,13 +4016,13 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
@@ -3927,7 +4046,7 @@
         <v>600</v>
       </c>
       <c r="O52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>900</v>
@@ -3939,37 +4058,40 @@
         <v>900</v>
       </c>
       <c r="S52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T52" s="3">
         <v>800</v>
       </c>
       <c r="U52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="V52" s="3">
         <v>500</v>
       </c>
       <c r="W52" s="3">
+        <v>500</v>
+      </c>
+      <c r="X52" s="3">
         <v>800</v>
-      </c>
-      <c r="X52" s="3">
-        <v>700</v>
       </c>
       <c r="Y52" s="3">
         <v>700</v>
       </c>
       <c r="Z52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AA52" s="3">
         <v>500</v>
       </c>
       <c r="AB52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E54" s="3">
         <v>22000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,64 +4330,64 @@
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>400</v>
       </c>
       <c r="Z57" s="3">
         <v>400</v>
@@ -4266,18 +4396,21 @@
         <v>400</v>
       </c>
       <c r="AB57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4292,19 +4425,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
       </c>
       <c r="L58" s="3">
+        <v>300</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -4319,10 +4452,10 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>1800</v>
@@ -4330,8 +4463,8 @@
       <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>1800</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -4339,17 +4472,20 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4357,61 +4493,61 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="S59" s="3">
+        <v>500</v>
+      </c>
+      <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
@@ -4420,16 +4556,19 @@
         <v>600</v>
       </c>
       <c r="Z59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,79 +4576,82 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4532,20 +4674,20 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4559,37 +4701,40 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>200</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
       </c>
       <c r="V61" s="3">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4600,7 +4745,7 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -4618,7 +4763,7 @@
         <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
@@ -4627,7 +4772,7 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4638,20 +4783,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
@@ -4659,17 +4804,20 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
       </c>
       <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5062,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5074,82 @@
         <v>1800</v>
       </c>
       <c r="E66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2700</v>
       </c>
       <c r="L66" s="3">
         <v>2700</v>
       </c>
       <c r="M66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-94400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-82700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-80300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-75900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-74100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-62200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-59400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-58100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-56300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-54300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-53800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-53200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-52700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-52400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-51300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E76" s="3">
         <v>20100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6040,7 +6238,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -6052,7 +6250,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6088,13 +6286,16 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,56 +6822,57 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -6663,11 +6883,11 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6678,13 +6898,16 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,59 +7069,62 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6903,28 +7132,31 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,17 +7515,20 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7291,29 +7536,29 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7324,37 +7569,40 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>21900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7362,11 +7610,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7389,11 +7637,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7401,14 +7649,14 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -7425,84 +7673,87 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>20600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-600</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>1100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-200</v>
       </c>
       <c r="Z102" s="3">
         <v>-200</v>
@@ -7511,6 +7762,9 @@
         <v>-200</v>
       </c>
       <c r="AB102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -6828,17 +6828,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,147 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -815,66 +823,72 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>600</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>600</v>
+      </c>
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -883,13 +897,13 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -898,60 +912,66 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>500</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>500</v>
+      </c>
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
         <v>100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -960,20 +980,20 @@
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -993,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -1008,13 +1028,13 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z10" s="3">
         <v>100</v>
@@ -1023,13 +1043,19 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,28 +1085,30 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>300</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -1089,10 +1117,10 @@
         <v>300</v>
       </c>
       <c r="L12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
@@ -1101,25 +1129,25 @@
         <v>200</v>
       </c>
       <c r="P12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>800</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>8</v>
+      <c r="U12" s="3">
+        <v>800</v>
+      </c>
+      <c r="V12" s="3">
+        <v>200</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,70 +1274,70 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1352,11 +1398,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1370,11 +1416,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1386,13 +1432,19 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
         <v>200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-700</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
       <c r="AC18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,20 +1682,22 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1640,14 +1708,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1655,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1664,126 +1732,138 @@
         <v>100</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-600</v>
       </c>
       <c r="X21" s="3">
         <v>-500</v>
       </c>
       <c r="Y21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>200</v>
       </c>
       <c r="AC21" s="3">
         <v>-700</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1826,11 +1906,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1847,17 +1927,17 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-600</v>
       </c>
       <c r="X23" s="3">
         <v>-500</v>
       </c>
       <c r="Y23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1980,15 +2072,15 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -2001,38 +2093,44 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-600</v>
       </c>
       <c r="X26" s="3">
         <v>-500</v>
       </c>
       <c r="Y26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-600</v>
       </c>
       <c r="X27" s="3">
         <v>-500</v>
       </c>
       <c r="Y27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,20 +2746,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2636,14 +2776,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2651,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2660,126 +2800,138 @@
         <v>-100</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-600</v>
       </c>
       <c r="X33" s="3">
         <v>-500</v>
       </c>
       <c r="Y33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-600</v>
       </c>
       <c r="X35" s="3">
         <v>-500</v>
       </c>
       <c r="Y35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,109 +3266,117 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>14100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>16600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>25600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>27000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="3">
+        <v>100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>200</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
@@ -3204,34 +3384,34 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3900</v>
-      </c>
-      <c r="N42" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O42" s="3">
-        <v>5100</v>
       </c>
       <c r="P42" s="3">
         <v>5100</v>
       </c>
       <c r="Q42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="R42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S42" s="3">
         <v>5000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>5000</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
@@ -3239,11 +3419,11 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3252,250 +3432,268 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>1900</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>2000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5500</v>
       </c>
       <c r="K44" s="3">
         <v>5500</v>
       </c>
       <c r="L44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N44" s="3">
         <v>5200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>3100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
         <v>700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>500</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>900</v>
       </c>
       <c r="U45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="V45" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="W45" s="3">
         <v>500</v>
       </c>
       <c r="X45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z45" s="3">
         <v>400</v>
@@ -3507,93 +3705,105 @@
         <v>400</v>
       </c>
       <c r="AC45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>19200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>21700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>22200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>23500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>11400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>13700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>16000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>17800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>20500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>23900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>24600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>26700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>28200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>3600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>1800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3606,11 +3816,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3622,22 +3832,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P47" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>800</v>
@@ -3658,10 +3868,10 @@
         <v>800</v>
       </c>
       <c r="X47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="Y47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="Z47" s="3">
         <v>6000</v>
@@ -3670,81 +3880,87 @@
         <v>6000</v>
       </c>
       <c r="AB47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD47" s="3">
         <v>7700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>11000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>11100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>8700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>7100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>7100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6200</v>
-      </c>
-      <c r="X48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1000</v>
       </c>
       <c r="Z48" s="3">
         <v>1000</v>
@@ -3753,33 +3969,39 @@
         <v>1000</v>
       </c>
       <c r="AB48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD48" s="3">
         <v>900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -3791,19 +4013,19 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>300</v>
       </c>
       <c r="P49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>200</v>
@@ -3812,37 +4034,43 @@
         <v>200</v>
       </c>
       <c r="T49" s="3">
+        <v>200</v>
+      </c>
+      <c r="U49" s="3">
+        <v>200</v>
+      </c>
+      <c r="V49" s="3">
         <v>1600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>300</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>200</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>200</v>
       </c>
       <c r="AB49" s="3">
         <v>200</v>
       </c>
       <c r="AC49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4019,16 +4259,16 @@
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>600</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -4049,10 +4289,10 @@
         <v>600</v>
       </c>
       <c r="P52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>900</v>
@@ -4061,37 +4301,43 @@
         <v>900</v>
       </c>
       <c r="T52" s="3">
+        <v>900</v>
+      </c>
+      <c r="U52" s="3">
+        <v>900</v>
+      </c>
+      <c r="V52" s="3">
         <v>800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17200</v>
+      </c>
+      <c r="F54" s="3">
         <v>20100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>33800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>35900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>24200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>26300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>29000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>31100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>32900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>33500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>34500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>37200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>16600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>11500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>11300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>11300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>11200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,13 +4578,15 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
@@ -4333,84 +4595,90 @@
         <v>500</v>
       </c>
       <c r="G57" s="3">
+        <v>500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>900</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>900</v>
+      </c>
+      <c r="T57" s="3">
+        <v>600</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>600</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>400</v>
       </c>
       <c r="AB57" s="3">
         <v>400</v>
       </c>
       <c r="AC57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4428,22 +4696,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4455,203 +4723,221 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
+      <c r="X58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>1800</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>0</v>
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1500</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
       </c>
       <c r="L59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>600</v>
       </c>
       <c r="Z59" s="3">
         <v>600</v>
       </c>
       <c r="AA59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2300</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4677,23 +4963,23 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4704,54 +4990,60 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2500</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>2400</v>
       </c>
       <c r="AA61" s="3">
         <v>2600</v>
       </c>
       <c r="AB61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AD61" s="3">
         <v>2900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4766,19 +5058,19 @@
         <v>400</v>
       </c>
       <c r="M62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4786,38 +5078,44 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>8</v>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3100</v>
       </c>
       <c r="L66" s="3">
         <v>2700</v>
       </c>
       <c r="M66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>3900</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2800</v>
       </c>
       <c r="X66" s="3">
         <v>3900</v>
       </c>
       <c r="Y66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AA66" s="3">
         <v>3800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-96600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-94400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-91900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-89200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-82700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-80300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-75900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-74100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-71200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-68900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-67200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-65400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-62200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-60600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-59400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-58100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-56300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-55200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-54300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-53800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-53200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-52700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-52400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-51300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>22000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>29500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>31700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>32800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>21500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>23600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>29800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>32400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>33600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>36600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>13800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>8100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>7500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>6100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>7400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>7500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-600</v>
       </c>
       <c r="X81" s="3">
         <v>-500</v>
       </c>
       <c r="Y81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6241,10 +6639,10 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -6253,10 +6651,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6289,13 +6687,19 @@
         <v>0</v>
       </c>
       <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1800</v>
       </c>
       <c r="M89" s="3">
         <v>-2500</v>
       </c>
       <c r="N89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,62 +7263,64 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6886,14 +7328,14 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -6901,13 +7343,19 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7081,82 +7541,88 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,44 +8019,44 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>14200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7572,37 +8064,43 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>21900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>5800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7613,14 +8111,14 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7640,29 +8138,29 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7676,95 +8174,107 @@
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>13600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>20600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>5400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-600</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>1100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>-200</v>
       </c>
       <c r="AB102" s="3">
         <v>-200</v>
       </c>
       <c r="AC102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IGC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>IGC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
-      </c>
-      <c r="G8" s="3">
-        <v>200</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -829,69 +833,72 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>200</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>100</v>
       </c>
       <c r="AC8" s="3">
         <v>100</v>
       </c>
       <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="3">
         <v>300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -903,10 +910,10 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -918,63 +925,66 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
       <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
         <v>500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>200</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
       <c r="AC9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3">
         <v>100</v>
       </c>
       <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
@@ -986,17 +996,17 @@
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -1007,17 +1017,17 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
@@ -1025,37 +1035,40 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>100</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
         <v>100</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
       <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,43 +1100,44 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>800</v>
       </c>
       <c r="H12" s="3">
+        <v>800</v>
+      </c>
+      <c r="I12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -1135,22 +1149,22 @@
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
       </c>
       <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
         <v>800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>200</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1286,11 +1306,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1298,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1309,26 +1329,26 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1336,11 +1356,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,8 +1427,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1422,8 +1445,8 @@
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1438,13 +1461,16 @@
         <v>0</v>
       </c>
       <c r="AD15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3100</v>
       </c>
       <c r="T17" s="3">
         <v>3100</v>
       </c>
       <c r="U17" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="V17" s="3">
         <v>2900</v>
       </c>
       <c r="W17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-300</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
       <c r="AC18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,11 +1730,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1714,11 +1748,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1729,35 +1763,35 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1765,105 +1799,111 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>300</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-300</v>
       </c>
       <c r="AB21" s="3">
         <v>-300</v>
       </c>
       <c r="AC21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>200</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1912,8 +1952,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1933,115 +1973,121 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
       <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2078,12 +2124,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -2099,38 +2145,41 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>8</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,11 +2834,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2782,11 +2852,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2797,35 +2867,35 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2833,105 +2903,111 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-300</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,118 +3354,122 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>27000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>1700</v>
       </c>
       <c r="Z41" s="3">
         <v>1700</v>
       </c>
       <c r="AA41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>200</v>
       </c>
       <c r="F42" s="3">
+        <v>200</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
@@ -3390,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3900</v>
-      </c>
-      <c r="P42" s="3">
-        <v>5100</v>
       </c>
       <c r="Q42" s="3">
         <v>5100</v>
@@ -3408,13 +3498,13 @@
         <v>5100</v>
       </c>
       <c r="S42" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="T42" s="3">
         <v>5000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+      <c r="U42" s="3">
+        <v>5000</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
@@ -3425,8 +3515,8 @@
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3438,16 +3528,19 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>1900</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AE42" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,46 +3548,46 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1900</v>
       </c>
       <c r="M43" s="3">
         <v>1900</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>1900</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -3503,40 +3596,43 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
+        <v>200</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y43" s="3">
         <v>2000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>800</v>
       </c>
       <c r="AC43" s="3">
         <v>800</v>
       </c>
       <c r="AD43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE43" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3544,25 +3640,25 @@
         <v>2600</v>
       </c>
       <c r="E44" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5500</v>
       </c>
       <c r="L44" s="3">
         <v>5500</v>
@@ -3571,43 +3667,43 @@
         <v>5500</v>
       </c>
       <c r="N44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O44" s="3">
         <v>5200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
       <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
         <v>700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>500</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>8</v>
@@ -3615,17 +3711,20 @@
       <c r="AB44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC44" s="3">
-        <v>0</v>
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
       </c>
       <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3732,7 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -3642,52 +3741,52 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1200</v>
       </c>
       <c r="K45" s="3">
         <v>1200</v>
       </c>
       <c r="L45" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M45" s="3">
         <v>1500</v>
       </c>
       <c r="N45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>500</v>
@@ -3696,7 +3795,7 @@
         <v>500</v>
       </c>
       <c r="Z45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AA45" s="3">
         <v>400</v>
@@ -3711,99 +3810,105 @@
         <v>400</v>
       </c>
       <c r="AE45" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF45" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>20500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>24600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>26700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4200</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>3200</v>
       </c>
       <c r="Z46" s="3">
         <v>3200</v>
       </c>
       <c r="AA46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3822,8 +3927,8 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3838,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -3847,10 +3952,10 @@
         <v>300</v>
       </c>
       <c r="Q47" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>800</v>
@@ -3874,7 +3979,7 @@
         <v>800</v>
       </c>
       <c r="Z47" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="AA47" s="3">
         <v>6000</v>
@@ -3886,84 +3991,87 @@
         <v>6000</v>
       </c>
       <c r="AD47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AE47" s="3">
         <v>7700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E48" s="3">
         <v>8400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>7100</v>
       </c>
       <c r="T48" s="3">
         <v>7100</v>
       </c>
       <c r="U48" s="3">
-        <v>5900</v>
+        <v>7100</v>
       </c>
       <c r="V48" s="3">
         <v>5900</v>
       </c>
       <c r="W48" s="3">
+        <v>5900</v>
+      </c>
+      <c r="X48" s="3">
         <v>5700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6200</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>1000</v>
       </c>
       <c r="AA48" s="3">
         <v>1000</v>
@@ -3975,13 +4083,16 @@
         <v>1000</v>
       </c>
       <c r="AD48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE48" s="3">
         <v>900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3992,19 +4103,19 @@
         <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -4019,7 +4130,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>300</v>
@@ -4028,7 +4139,7 @@
         <v>300</v>
       </c>
       <c r="R49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S49" s="3">
         <v>200</v>
@@ -4040,25 +4151,25 @@
         <v>200</v>
       </c>
       <c r="V49" s="3">
+        <v>200</v>
+      </c>
+      <c r="W49" s="3">
         <v>1600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1500</v>
-      </c>
-      <c r="X49" s="3">
-        <v>100</v>
       </c>
       <c r="Y49" s="3">
         <v>100</v>
       </c>
       <c r="Z49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA49" s="3">
         <v>300</v>
       </c>
       <c r="AB49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC49" s="3">
         <v>200</v>
@@ -4067,10 +4178,13 @@
         <v>200</v>
       </c>
       <c r="AE49" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF49" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4265,13 +4385,13 @@
         <v>1000</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -4295,7 +4415,7 @@
         <v>600</v>
       </c>
       <c r="R52" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>900</v>
@@ -4307,37 +4427,40 @@
         <v>900</v>
       </c>
       <c r="V52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W52" s="3">
         <v>800</v>
       </c>
       <c r="X52" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Y52" s="3">
         <v>500</v>
       </c>
       <c r="Z52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA52" s="3">
         <v>800</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>700</v>
       </c>
       <c r="AB52" s="3">
         <v>700</v>
       </c>
       <c r="AC52" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AD52" s="3">
         <v>500</v>
       </c>
       <c r="AE52" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E54" s="3">
         <v>15700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>11300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>11200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,16 +4710,17 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>500</v>
@@ -4601,64 +4732,64 @@
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>600</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>400</v>
       </c>
       <c r="AC57" s="3">
         <v>400</v>
@@ -4667,10 +4798,13 @@
         <v>400</v>
       </c>
       <c r="AE57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF57" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4702,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4729,10 +4863,10 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>1800</v>
@@ -4740,8 +4874,8 @@
       <c r="Y58" s="3">
         <v>1800</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>1800</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4749,88 +4883,91 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
       <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="3">
+        <v>500</v>
+      </c>
+      <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>600</v>
       </c>
       <c r="AA59" s="3">
         <v>600</v>
@@ -4839,16 +4976,19 @@
         <v>600</v>
       </c>
       <c r="AC59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4856,88 +4996,91 @@
         <v>2100</v>
       </c>
       <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1400</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1900</v>
       </c>
       <c r="O60" s="3">
         <v>1900</v>
       </c>
       <c r="P60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4969,20 +5112,20 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
       </c>
       <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4996,37 +5139,40 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>100</v>
-      </c>
-      <c r="W61" s="3">
-        <v>200</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
       </c>
       <c r="Y61" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2600</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5037,7 +5183,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -5046,7 +5192,7 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>400</v>
@@ -5064,7 +5210,7 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
@@ -5073,7 +5219,7 @@
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5084,20 +5230,20 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
       <c r="X62" s="3">
         <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>8</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>8</v>
@@ -5105,17 +5251,20 @@
       <c r="AB62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD62" s="3">
         <v>0</v>
       </c>
       <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1800</v>
       </c>
       <c r="G66" s="3">
         <v>1800</v>
       </c>
       <c r="H66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2700</v>
       </c>
       <c r="O66" s="3">
         <v>2700</v>
       </c>
       <c r="P66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>4500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-102700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-96600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-94400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-91900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-89200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-82700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-80300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-71200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-68900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-65400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-59400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-58100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-56300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-55200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-54300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-53800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-53200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-52700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-52400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-52000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-51300</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-51100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E76" s="3">
         <v>13200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>8100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>7400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>7500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6645,7 +6844,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -6657,7 +6856,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -6693,13 +6892,16 @@
         <v>0</v>
       </c>
       <c r="AD83" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E89" s="3">
         <v>-1500</v>
       </c>
       <c r="F89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,65 +7485,66 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -7334,11 +7555,11 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -7349,13 +7570,16 @@
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,68 +7759,71 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -7601,28 +7831,31 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8025,11 +8271,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -8037,29 +8283,29 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -8070,37 +8316,40 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>21900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>5800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8117,11 +8366,11 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -8144,11 +8393,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -8156,14 +8405,14 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -8180,93 +8429,96 @@
         <v>0</v>
       </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>200</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-1700</v>
       </c>
       <c r="F102" s="3">
         <v>-1700</v>
       </c>
       <c r="G102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>20600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-600</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>1100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>-200</v>
       </c>
       <c r="AC102" s="3">
         <v>-200</v>
@@ -8275,6 +8527,9 @@
         <v>-200</v>
       </c>
       <c r="AE102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-600</v>
       </c>
     </row>
